--- a/biology/Médecine/Carl_Jakob_Adolf_Christian_Gerhardt/Carl_Jakob_Adolf_Christian_Gerhardt.xlsx
+++ b/biology/Médecine/Carl_Jakob_Adolf_Christian_Gerhardt/Carl_Jakob_Adolf_Christian_Gerhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Jakob Adolf Christian Gerhardt est un médecin allemand né le 5 mai 1833 à Spire au royaume de Bavière et mort le 22 juillet 1902 à Gamburg an der Tauber, dans le grand-duché de Bade.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerhardt a étudié la médecine à l’Université de Wurtzbourg, il a reçu son doctorat en 1856. Par la suite il a été l’assistant de Heinrich von Bamberger (en) et Franz von Rinecker à Würzburg, puis de Wilhelm Griesinger  à Tübingen.
 En 1861 il est nommé professeur et chef du département de médecine interne à l'université d'Iéna.
-Gerhardt est considéré comme l'un des pionniers de la pédiatrie, il est l'auteur de l'influent Handbuch der Kinderkrankheiten (manuel des maladies infantiles). En 1865, il a l'idée d'utiliser le chlorure de fer pour détecter l'acétone dans les urines des diabétiques (réaction de Gerhardt). En 1892 il décrit succinctement l'érythromélalgie. Gerhardt s'est particulièrement intéressé à la croup et aux lésions laryngées[1] et joua un rôle dans la diffusion de la laryngoscopie. En 1887, il diagnostique le cancer du larynx du prince héritier allemand Frédéric Guillaume.
+Gerhardt est considéré comme l'un des pionniers de la pédiatrie, il est l'auteur de l'influent Handbuch der Kinderkrankheiten (manuel des maladies infantiles). En 1865, il a l'idée d'utiliser le chlorure de fer pour détecter l'acétone dans les urines des diabétiques (réaction de Gerhardt). En 1892 il décrit succinctement l'érythromélalgie. Gerhardt s'est particulièrement intéressé à la croup et aux lésions laryngées et joua un rôle dans la diffusion de la laryngoscopie. En 1887, il diagnostique le cancer du larynx du prince héritier allemand Frédéric Guillaume.
 Il a également effectué d'importantes recherches sur l'auscultation et la percussion.
 </t>
         </is>
